--- a/Data/Games_sources.xlsx
+++ b/Data/Games_sources.xlsx
@@ -441,25 +441,29 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>The Oregon Trail</t>
+          <t>Game</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Sports</t>
+          <t>Genre</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Atari</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PDP-10</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr"/>
+          <t>Original platform(s)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Ref(s)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
